--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1583347.841393468</v>
+        <v>1578811.471746183</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12446096.03106539</v>
+        <v>12463925.44488782</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>716015.7164765531</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10373766.07637876</v>
+        <v>10486116.08287926</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663198</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663198</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>37.11181591693609</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>182.5570120086798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>89.48249960344553</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663198</v>
+        <v>48.08970874525387</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="4">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>96.41014564717602</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>83.01027501722795</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>32.39806028898077</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>208.7904936145403</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>83.94550301703282</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.17372043046388</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>8.884184155073076</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>172.7361461930495</v>
       </c>
       <c r="W7" t="n">
-        <v>194.9515999256481</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.6125016849392</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.8302881234605</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>227.396036177111</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>94.29180769719214</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>10.73871884651419</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>8.314673486993648</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>76.43359024427681</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>292.4432790025004</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.7529362288988</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>292.8791496930996</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
-        <v>35.06967548278055</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>105.3414727761354</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>203.1790944336319</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9816688049376</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.909158861806</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>88.72466800977266</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>15.70785076304183</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>126.466033356256</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.3525564185459</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7812269295666</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.9500951339564</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.081856402319</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>94.07552024858876</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>279.7891019811476</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081959</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001859</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>109.7234882887314</v>
       </c>
       <c r="E16" t="n">
-        <v>81.37259901119296</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108353</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081959</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>148.9055307001859</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>9.434273714503332</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.804576744409</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108353</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.9464125187627</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>153.9036548888877</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>53.07327741456097</v>
       </c>
     </row>
     <row r="23">
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>38.2187527515831</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>33.82891891787568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>245.8640357413583</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>42.5313457611381</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>30.65104903283357</v>
       </c>
       <c r="U34" t="n">
-        <v>140.5758943588622</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>42.5313457611381</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>141.383131826302</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>73.93222849083736</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>95.12712756824172</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>107.3363007608859</v>
       </c>
       <c r="X46" t="n">
-        <v>179.2499669408062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393.841617006275</v>
+        <v>540.7559564928856</v>
       </c>
       <c r="C2" t="n">
-        <v>393.841617006275</v>
+        <v>540.7559564928856</v>
       </c>
       <c r="D2" t="n">
-        <v>393.841617006275</v>
+        <v>540.7559564928856</v>
       </c>
       <c r="E2" t="n">
-        <v>393.841617006275</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652794</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201466</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372647</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372647</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="U2" t="n">
-        <v>578.2426392372647</v>
+        <v>540.7559564928856</v>
       </c>
       <c r="V2" t="n">
-        <v>578.2426392372647</v>
+        <v>540.7559564928856</v>
       </c>
       <c r="W2" t="n">
-        <v>578.2426392372647</v>
+        <v>540.7559564928856</v>
       </c>
       <c r="X2" t="n">
-        <v>578.2426392372647</v>
+        <v>540.7559564928856</v>
       </c>
       <c r="Y2" t="n">
-        <v>393.841617006275</v>
+        <v>540.7559564928856</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.27357399906981</v>
+        <v>484.9240438887989</v>
       </c>
       <c r="C3" t="n">
-        <v>64.27357399906981</v>
+        <v>310.4710146076719</v>
       </c>
       <c r="D3" t="n">
-        <v>64.27357399906981</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140242</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017059</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843274</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843274</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843274</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843274</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="V3" t="n">
-        <v>533.4995072678428</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="W3" t="n">
-        <v>443.1131440320392</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="X3" t="n">
-        <v>253.6933590155545</v>
+        <v>674.3438289052838</v>
       </c>
       <c r="Y3" t="n">
-        <v>64.27357399906981</v>
+        <v>484.9240438887989</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>481.2282705107227</v>
+        <v>459.9217274659449</v>
       </c>
       <c r="C4" t="n">
-        <v>481.2282705107227</v>
+        <v>459.9217274659449</v>
       </c>
       <c r="D4" t="n">
-        <v>481.2282705107227</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="E4" t="n">
-        <v>481.2282705107227</v>
+        <v>161.891994471216</v>
       </c>
       <c r="F4" t="n">
-        <v>334.3383230128123</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818524</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594233</v>
+        <v>88.85718952202703</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>261.7447676371621</v>
       </c>
       <c r="M4" t="n">
-        <v>447.3950989318184</v>
+        <v>447.3950989318189</v>
       </c>
       <c r="N4" t="n">
-        <v>633.0454302264751</v>
+        <v>633.0454302264757</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608016</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652794</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846271</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846271</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846271</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846271</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="U4" t="n">
-        <v>662.8767353409625</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="V4" t="n">
-        <v>662.8767353409625</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="W4" t="n">
-        <v>662.8767353409625</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="X4" t="n">
-        <v>662.8767353409625</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="Y4" t="n">
-        <v>662.8767353409625</v>
+        <v>557.3057129681429</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1228.651845231044</v>
+        <v>1299.860713063805</v>
       </c>
       <c r="C5" t="n">
-        <v>1228.651845231044</v>
+        <v>930.8981961233937</v>
       </c>
       <c r="D5" t="n">
-        <v>870.3861466242934</v>
+        <v>572.6324975166433</v>
       </c>
       <c r="E5" t="n">
-        <v>870.3861466242934</v>
+        <v>572.6324975166433</v>
       </c>
       <c r="F5" t="n">
-        <v>459.4002418346859</v>
+        <v>161.6465927270357</v>
       </c>
       <c r="G5" t="n">
-        <v>43.3691965380931</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="H5" t="n">
-        <v>43.3691965380931</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="I5" t="n">
-        <v>43.3691965380931</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301904</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232724</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711874</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.148464578731</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135168</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545598</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172449</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904655</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904655</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.325171642786</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1826.151173794701</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U5" t="n">
-        <v>1615.251685295166</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V5" t="n">
-        <v>1615.251685295166</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="W5" t="n">
-        <v>1615.251685295166</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="X5" t="n">
-        <v>1615.251685295166</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="Y5" t="n">
-        <v>1615.251685295166</v>
+        <v>1686.460553127927</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>533.4666540631142</v>
+        <v>662.8886629835073</v>
       </c>
       <c r="C6" t="n">
-        <v>448.673216672172</v>
+        <v>488.4356337023803</v>
       </c>
       <c r="D6" t="n">
-        <v>448.673216672172</v>
+        <v>339.501224041129</v>
       </c>
       <c r="E6" t="n">
-        <v>448.673216672172</v>
+        <v>180.2637690356736</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1386586990569</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G6" t="n">
-        <v>165.2626649141729</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H6" t="n">
-        <v>69.80729798300611</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3691965380931</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562335</v>
+        <v>121.7846078506383</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504523</v>
+        <v>243.2077001209171</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104402</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789497</v>
+        <v>716.738104869235</v>
       </c>
       <c r="N6" t="n">
-        <v>1347.427370741492</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>1638.786616996058</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.295032556959</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
-        <v>2154.745546059889</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R6" t="n">
-        <v>2168.459826904655</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>2029.495166406373</v>
+        <v>1677.486629738964</v>
       </c>
       <c r="T6" t="n">
-        <v>1834.784844880349</v>
+        <v>1481.867907205805</v>
       </c>
       <c r="U6" t="n">
-        <v>1606.683255013613</v>
+        <v>1481.867907205805</v>
       </c>
       <c r="V6" t="n">
-        <v>1371.531146781871</v>
+        <v>1246.715798974062</v>
       </c>
       <c r="W6" t="n">
-        <v>1117.293790053669</v>
+        <v>1246.715798974062</v>
       </c>
       <c r="X6" t="n">
-        <v>909.4422898481362</v>
+        <v>1038.864298768529</v>
       </c>
       <c r="Y6" t="n">
-        <v>701.6819910831823</v>
+        <v>831.1040000035753</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770.632058731768</v>
+        <v>647.5850744831047</v>
       </c>
       <c r="C7" t="n">
-        <v>601.6958758038611</v>
+        <v>478.6488915551978</v>
       </c>
       <c r="D7" t="n">
-        <v>451.5792363915253</v>
+        <v>328.532252142862</v>
       </c>
       <c r="E7" t="n">
-        <v>303.6661428091322</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="F7" t="n">
-        <v>303.6661428091322</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
-        <v>303.6661428091322</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
-        <v>153.6259293129249</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I7" t="n">
-        <v>43.3691965380931</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J7" t="n">
-        <v>58.69630920174243</v>
+        <v>35.96388306992288</v>
       </c>
       <c r="K7" t="n">
-        <v>213.7203003246707</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L7" t="n">
-        <v>467.6240706728887</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M7" t="n">
-        <v>745.7191196640791</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N7" t="n">
-        <v>1022.636306385109</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O7" t="n">
-        <v>1262.397853152953</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P7" t="n">
-        <v>1444.034594271087</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q7" t="n">
-        <v>1486.355378693648</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1377.19088246573</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>1377.19088246573</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>1377.19088246573</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>1377.19088246573</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>1377.19088246573</v>
+        <v>1118.650709350305</v>
       </c>
       <c r="W7" t="n">
-        <v>1180.270074460025</v>
+        <v>829.2335393133444</v>
       </c>
       <c r="X7" t="n">
-        <v>952.2805235620077</v>
+        <v>829.2335393133444</v>
       </c>
       <c r="Y7" t="n">
-        <v>952.2805235620077</v>
+        <v>829.2335393133444</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1246.899958573734</v>
+        <v>1211.345188505514</v>
       </c>
       <c r="C8" t="n">
-        <v>877.9374416333219</v>
+        <v>1211.345188505514</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>853.0794898987635</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>467.2912373005192</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>56.3053325109117</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>156.8927045872707</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>376.2952505158997</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>685.3852714985276</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1060.976912556943</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1447.259827415488</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>1798.680568975109</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2064.109040631087</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2215.262022208125</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2217.777326380913</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2217.777326380913</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2217.777326380913</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2217.777326380913</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.01262627016</v>
+        <v>2217.777326380913</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.01262627016</v>
+        <v>1988.084360545447</v>
       </c>
       <c r="X8" t="n">
-        <v>1726.54686800908</v>
+        <v>1988.084360545447</v>
       </c>
       <c r="Y8" t="n">
-        <v>1336.407536033268</v>
+        <v>1597.945028569636</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>905.6133829345007</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>731.1603536533737</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>582.2259439921224</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>422.9884889866669</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>276.4539310135519</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>139.5997967268023</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>194.7902561886474</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>355.3411088987147</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744473</v>
+        <v>617.5440847283911</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>942.8794583784968</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1291.234136219251</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1587.690814634403</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2121.568509855269</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2217.777326380913</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2217.777326380913</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2217.777326380913</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2206.930135626858</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>1978.829983885</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1743.677875653257</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1489.440518925055</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1281.589018719523</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1073.828719954569</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>633.2923138032186</v>
+        <v>508.0947705358286</v>
       </c>
       <c r="C10" t="n">
-        <v>464.3561308753117</v>
+        <v>339.1585876079217</v>
       </c>
       <c r="D10" t="n">
-        <v>314.2394914629759</v>
+        <v>339.1585876079217</v>
       </c>
       <c r="E10" t="n">
-        <v>314.2394914629759</v>
+        <v>191.2454940255286</v>
       </c>
       <c r="F10" t="n">
-        <v>314.2394914629759</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>44.35554652761827</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>60.95254262692023</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>218.063342327403</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>474.6375091918436</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>755.548116892171</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1035.213914629318</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1277.51424854613</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1461.323360659239</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738197</v>
+        <v>1505.148182155967</v>
       </c>
       <c r="V10" t="n">
-        <v>1150.699034738197</v>
+        <v>1427.942535444577</v>
       </c>
       <c r="W10" t="n">
-        <v>861.2818647012359</v>
+        <v>1138.525365407616</v>
       </c>
       <c r="X10" t="n">
-        <v>633.2923138032186</v>
+        <v>910.5358145095985</v>
       </c>
       <c r="Y10" t="n">
-        <v>633.2923138032186</v>
+        <v>689.7432353660683</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1908.963087506563</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1613.565835988886</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1613.565835988886</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1227.777583390641</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>816.7916786010337</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>401.8897228142672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>106.0521978717424</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>70.62828324267109</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>273.6899477097737</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>628.7652626856841</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1106.169350678355</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>1669.042821934178</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2245.63798279985</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>2776.765181644065</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>3195.568956936613</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>3461.900404073469</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>3531.414162133554</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>3425.008634076852</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>3219.777225558032</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>2966.260388381328</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>2635.197501037757</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>2282.428845767643</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>1908.963087506563</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>1908.963087506563</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5470055016204</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0939762204935</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1595665592422</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9221115537866</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3875535806716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.1156759424837</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>86.49479916493557</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>70.62828324267109</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>172.7525725306179</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>425.4540737661193</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>811.5649686345989</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.495039444015</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1778.271405822936</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2210.504932720019</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2393.789920976425</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.844229385825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.844229385825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.100761349203</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.82545183552</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.763606452119</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.611498220377</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.374141492175</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.522641286642</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.762342521688</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.673512102474</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>923.7373291745671</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>773.6206897622313</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>625.7075961798382</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>478.8176486819279</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>311.1912899607598</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>165.6540612715486</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>70.62828324267109</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>121.0503044527553</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>333.7460110473871</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>661.4497215226974</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1017.35645986276</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1370.235147877623</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1680.15943581558</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>1921.832522992833</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2005.719361500673</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2005.719361500673</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2005.719361500673</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2005.719361500673</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2005.719361500673</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2005.719361500673</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1723.104106974261</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1495.114556076244</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1274.321976932714</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251944</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128765</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127291</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304029</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476972</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945778</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>459.9992225560485</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>177.684414342863</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779266</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>731.191937821678</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1323.210292073806</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1945.306255473142</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2492.182730473337</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220737</v>
+        <v>835.5837926935562</v>
       </c>
       <c r="C16" t="n">
-        <v>325.1228070941668</v>
+        <v>666.6476097656493</v>
       </c>
       <c r="D16" t="n">
-        <v>175.006167681831</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>92.81162322608057</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>92.81162322608057</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861983</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693327</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020529</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821982</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930822</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.489584893861</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958435</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523134</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872365</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608066</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251938</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018651</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957688</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874794</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333935</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021283</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127291</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304029</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070877</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.704271100993</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.260941820542</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.198054476972</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.429399206857</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945778</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969966</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560485</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829334</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>177.684414342863</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>240.4596049779266</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>570.9683475412855</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>733.6583989593857</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>733.6583989593857</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1355.754362358722</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1902.630837358917</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.214355784993</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>494.0589900220737</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>494.0589900220737</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>494.0589900220737</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>494.0589900220737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.5294206134844</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.3152257880633</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.4425088264937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608057</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156345</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861983</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693327</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213792</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005499</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020529</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856733</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.516429368669</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.3462391076</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1957.667456821982</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1668.591243136708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1413.906754930822</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1124.489584893861</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>896.5000339958435</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>675.7074548523134</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608054</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608054</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251936</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128755</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.45766301865</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957687</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874793</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333933</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021281</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127289</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304027</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070876</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750194</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469744</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126173</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119594979</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969966</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608054</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608054</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>240.4596049779265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4596049779265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>832.4779592300542</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1454.57392262939</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.450397629585</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2421.03391605566</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.385284034031</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C22" t="n">
-        <v>929.4491011061236</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>779.3324616937879</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>631.4193681113948</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>484.5294206134844</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.3152257880633</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.4425088264937</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608054</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156345</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861981</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693324</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213792</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005499</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856733</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2428.375774410168</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2428.375774410168</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2272.917537148665</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.233048942778</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1728.815878905817</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1500.8263280078</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.03374886427</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="23">
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2951.54259528685</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>2782.606412358944</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>2632.489772946608</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>2484.576679364215</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>3353.98363926062</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>3133.19106011709</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6314,19 +6314,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>554.5813165460164</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>385.6451336181095</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1474.429081454764</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1185.011911417804</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>957.0223605197863</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>736.2297813762561</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,13 +6484,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2897.617548589219</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4580.826493336714</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4361.225028359655</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4072.149801703853</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3817.465313497966</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3528.048143461006</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3300.058592562988</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3079.266013419458</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2971.848747074064</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C34" t="n">
-        <v>2802.912564146157</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D34" t="n">
-        <v>2652.795924733821</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E34" t="n">
-        <v>2504.882831151428</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151428</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866308</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296632</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822171</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076438</v>
+        <v>2166.101889898846</v>
       </c>
       <c r="U34" t="n">
-        <v>4146.381000188699</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V34" t="n">
-        <v>3891.696511982812</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W34" t="n">
-        <v>3602.279341945851</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X34" t="n">
-        <v>3374.289791047834</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y34" t="n">
-        <v>3153.497211904304</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,10 +6973,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2940.5785039035</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>2771.642320975594</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.681365661313</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661313</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018135</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V37" t="n">
-        <v>3860.426268812248</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W37" t="n">
-        <v>3571.009098775287</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>3343.01954787727</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>3122.22696873374</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7405,25 +7405,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876688</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>580.8993044876688</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>580.8993044876688</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,19 +7636,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,16 +8139,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>88.70546398364611</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>153.3759016847017</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>182.3656402706162</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>103.2587840751582</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241556</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>30.32522655688311</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>72.82961276850716</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>85.52781524636558</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>188.449552051782</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.2254477417716</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2077083987908</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>6.733896355443392</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372882</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>38.89198472948098</v>
       </c>
       <c r="E16" t="n">
-        <v>65.06136363537621</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.804576744409</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>50.2915261372882</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.9867743084279</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.29152613729087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>132.2817966595327</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>165.5113759375338</v>
       </c>
     </row>
     <row r="23">
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>179.1866975757052</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>191.8807364711615</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>40.32043864788582</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>138.4949402405065</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>186.7544012944547</v>
       </c>
       <c r="U34" t="n">
-        <v>145.6085800303819</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>106.0841272570743</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>144.8013425629422</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>93.31459260779047</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>50.29392045468953</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>179.1866975757051</v>
       </c>
       <c r="X46" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>927014.1809255986</v>
+        <v>925386.0870708916</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>929636.9545833386</v>
+        <v>927342.5773971104</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>784389.8905115722</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896366.5160321053</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896366.5160321053</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>896366.5160321052</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117838</v>
       </c>
       <c r="E2" t="n">
-        <v>455573.8455753142</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>521741.8515647202</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.8515647202</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.85156472</v>
+        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861785</v>
+        <v>259123.8056778327</v>
       </c>
       <c r="D3" t="n">
-        <v>99404.18284596044</v>
+        <v>138712.7919296904</v>
       </c>
       <c r="E3" t="n">
-        <v>231167.415592775</v>
+        <v>589678.7921745753</v>
       </c>
       <c r="F3" t="n">
-        <v>258311.5928260625</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744842</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487785</v>
+        <v>60247.15959153564</v>
       </c>
       <c r="L3" t="n">
-        <v>24921.83922824942</v>
+        <v>33617.87336484285</v>
       </c>
       <c r="M3" t="n">
-        <v>60374.33121642454</v>
+        <v>154073.8510167276</v>
       </c>
       <c r="N3" t="n">
-        <v>67916.23640145668</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
-        <v>173824.4120003226</v>
+        <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>146359.3674130576</v>
+        <v>170385.5244296189</v>
       </c>
       <c r="E4" t="n">
-        <v>14066.63192414103</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14210.2194556297</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14210.2194556297</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14210.2194556297</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.0818558723</v>
+        <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>86168.04029969306</v>
       </c>
       <c r="E5" t="n">
-        <v>78349.93018936797</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>100142.1285138385</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138385</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-392834.7291838808</v>
+        <v>-392834.7291838814</v>
       </c>
       <c r="C6" t="n">
-        <v>-117856.5877305887</v>
+        <v>-10311.95296079823</v>
       </c>
       <c r="D6" t="n">
-        <v>194975.8277129214</v>
+        <v>138410.7937527814</v>
       </c>
       <c r="E6" t="n">
-        <v>131989.8678690302</v>
+        <v>-180720.1635311905</v>
       </c>
       <c r="F6" t="n">
-        <v>149077.9107691895</v>
+        <v>408958.6286433847</v>
       </c>
       <c r="G6" t="n">
-        <v>407389.503595252</v>
+        <v>408958.6286433846</v>
       </c>
       <c r="H6" t="n">
-        <v>407389.5035952522</v>
+        <v>408958.628643385</v>
       </c>
       <c r="I6" t="n">
-        <v>398487.0944402935</v>
+        <v>408958.6286433848</v>
       </c>
       <c r="J6" t="n">
-        <v>360241.0631691974</v>
+        <v>359893.6839148402</v>
       </c>
       <c r="K6" t="n">
-        <v>318046.051032864</v>
+        <v>348711.4690518491</v>
       </c>
       <c r="L6" t="n">
-        <v>384384.1686694924</v>
+        <v>375340.755278542</v>
       </c>
       <c r="M6" t="n">
-        <v>348931.6766813173</v>
+        <v>254884.7776266572</v>
       </c>
       <c r="N6" t="n">
-        <v>341389.7714962851</v>
+        <v>408958.6286433848</v>
       </c>
       <c r="O6" t="n">
-        <v>409306.0078977419</v>
+        <v>408958.6286433847</v>
       </c>
       <c r="P6" t="n">
-        <v>409306.0078977419</v>
+        <v>408958.6286433848</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376848</v>
+        <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>863.7717861790452</v>
       </c>
       <c r="E3" t="n">
-        <v>1131.763069951282</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261638</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>554.4443315952283</v>
       </c>
       <c r="E4" t="n">
-        <v>882.8535405333886</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326007</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326007</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247803</v>
+        <v>201.5110155847053</v>
       </c>
       <c r="D3" t="n">
-        <v>80.35422757985464</v>
+        <v>113.7908296814352</v>
       </c>
       <c r="E3" t="n">
-        <v>197.6981778337425</v>
+        <v>504.2037141626288</v>
       </c>
       <c r="F3" t="n">
-        <v>226.2779787651041</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598439</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="D4" t="n">
-        <v>98.46987537387508</v>
+        <v>132.8291933132464</v>
       </c>
       <c r="E4" t="n">
-        <v>242.2687084333497</v>
+        <v>618.2639565044203</v>
       </c>
       <c r="F4" t="n">
-        <v>277.2917497926186</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364165</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598437</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387508</v>
+        <v>132.8291933132464</v>
       </c>
       <c r="M4" t="n">
-        <v>242.26870843335</v>
+        <v>618.2639565044203</v>
       </c>
       <c r="N4" t="n">
-        <v>277.2917497926186</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598439</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387508</v>
+        <v>132.8291933132464</v>
       </c>
       <c r="M4" t="n">
-        <v>242.2687084333497</v>
+        <v>618.2639565044203</v>
       </c>
       <c r="N4" t="n">
-        <v>277.2917497926186</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399023</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>214.0574446480942</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>203.6809266473738</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,16 +27460,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,22 +27511,22 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310543</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>162.2124835574741</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715764</v>
+        <v>157.6832764582236</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098452</v>
+        <v>18.15710861098435</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>83.42183453476127</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>203.2548064762223</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577478</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>379.8896784060634</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>42.28059907957555</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>88.76299597128292</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>132.8351251490725</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596158</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>79.40149713077852</v>
       </c>
       <c r="W7" t="n">
-        <v>91.57139841094295</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>294.1213399785414</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>76.60428439787265</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>129.8916290734614</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>121.844932540302</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155182</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1730436088543</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>181.9372714379438</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>157.9919265578105</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.6085557685651</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>107.2570757305866</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>175.7040530795512</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29936,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508278</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958416</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>132.312282993323</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
-        <v>291.286936740926</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258715</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840431</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934783</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839013</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190908</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662302</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928398</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699496</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452749</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175398</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464134</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>63.2229124209512</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076063</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913579</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616801</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730381</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152847</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884509</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475634</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349508</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867497</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053861</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>7.40151038405785</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526972</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619436</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017478</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490428</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368737</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282508</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N7" t="n">
-        <v>235.582157642014</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595398</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099894</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451904</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153094</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735641</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978881</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.472449391674551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>35.562222332487</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>133.8716051725333</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>294.7198015566382</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>441.708584306222</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>547.9785573766821</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>609.7317292458745</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>619.5978260799698</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>585.0686574415059</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>499.3425630845404</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>374.9854692451954</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>218.1262490997767</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>79.12844051278391</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>15.20064721205535</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.277795951333964</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>1.857924219328512</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>17.94363653930432</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>63.96800491986326</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>175.5330947743662</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>300.0140174693765</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>403.4058705169211</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>470.7556234675796</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>483.2151240436906</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>442.0474347627799</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>354.7820379873894</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>237.1623968391975</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>115.3542774070808</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>34.51012749498353</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>7.488738410363606</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1222318565347706</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.557621253765491</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>13.84866896529683</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>46.84191915869315</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>110.1238226412202</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>180.9672693011179</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>231.5757998552804</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>244.1642116243487</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>238.3585324057685</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>220.1626841231442</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>188.387210546328</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>130.4295397130358</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>70.03631564658289</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>27.14509039516768</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>6.655290811543461</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.08496115929629962</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.549801286236306</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>46.59565242266758</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>175.4062140876254</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>386.158696917699</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>578.751785364082</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>717.9927664777365</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>798.9052951018414</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>811.8324180063603</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>766.5903314663479</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>654.2671122123891</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>491.3273536490512</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>285.8014550465416</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>103.6785968101099</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.91675513049944</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3639841028989044</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.434358301404644</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>23.51077622672381</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>83.81452923695817</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>229.9934744322695</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>393.0954806263807</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>528.5653846975304</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>616.8108731234486</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>633.1360215569913</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>579.1957665627094</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>319.1107591884781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>310.7437017722841</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>45.21713774758185</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>9.812172276275733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1601551514082004</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.040884224502312</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>18.14531610512056</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>61.37495467866953</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>144.2905146723134</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>237.1136399012685</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>303.4238237046437</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>319.9178789372123</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>312.310946827704</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>288.4697083869268</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>246.8356702070795</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>170.8962235626436</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>91.76557613080391</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>35.56704598519027</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>8.720141686509875</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1113209577001262</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377427</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122284</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>210.475889570406</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874066</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830432</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364266</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293311</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>974.145364522961</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086955</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687526</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148608</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854258</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901941</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540906</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735819</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745726</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504303</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>759.721473092764</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426206</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>195.1793561990812</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548568</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284928</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900887</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>364.088578864062</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265023</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416876</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465964</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282425</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561743</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377427</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122284</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>210.475889570406</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874066</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830432</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364266</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293311</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>974.145364522961</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086955</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687526</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148608</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854258</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901941</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540906</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735819</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848226</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>302.8877650506824</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>759.721473092764</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426206</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982455</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548568</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284928</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900887</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>364.088578864062</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265023</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416876</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465964</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282425</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561743</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.0542121815563</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,19 +34216,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062398</v>
+        <v>74.60115408961761</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>169.4872848053132</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142397</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808909</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140559</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662056</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873104</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O5" t="n">
-        <v>348.155628697404</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109606</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.3119886183904</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.65087734093964</v>
+        <v>88.94484524048465</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169989</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818059</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510198</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>528.6106140025676</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>294.3022689440064</v>
+        <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332332</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>304.4954681847784</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
-        <v>13.85280893410659</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.48193198348417</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K7" t="n">
-        <v>156.5898900231599</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L7" t="n">
-        <v>256.4684548971899</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M7" t="n">
-        <v>280.9040898900913</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N7" t="n">
-        <v>279.7143300212426</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O7" t="n">
-        <v>242.1833805735795</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P7" t="n">
-        <v>183.4714556748829</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.74826709349601</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>113.6738970299519</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>221.6187332612415</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>312.2121424066949</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>379.3854960186018</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>390.1847624833788</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>354.9704460198192</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>268.1095673292709</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>152.6797793707459</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>2.540711285644591</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>151.9542521828577</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676405</v>
+        <v>162.1725784950175</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>264.8514907370469</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>328.6215895455613</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>351.8734119603573</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>299.4511903183354</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>539.2703992129964</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>97.18062275317598</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>16.76464252454744</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>158.6977774752351</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>259.1658251155966</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>283.7480885861893</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>282.4907047849971</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>244.7478120371839</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>185.6657698112215</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>44.26749646134142</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>205.1127923910128</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>358.6619343191015</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>482.2263515077493</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>568.5590618745687</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>582.4193544097693</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>536.4921200446612</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>423.0341164571195</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>269.0216637746017</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>70.21591723240948</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>103.1558477656028</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>255.2540416520217</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>390.0110049176562</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>474.6768392014303</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>501.794309473658</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>436.599522118265</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>185.1363517741479</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>170.7619276862626</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.93133455564063</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>214.8441480753856</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>331.0138489649598</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>359.5017558990529</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>356.4431192069326</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>313.0548363009665</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>244.1142294719729</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.73418031094918</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607203</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380627</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020584</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870087</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404113</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069152</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946984</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094307</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981762</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>61.2049487847509</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066055</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642058</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243781</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209162</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>293.465085693136</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607203</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380627</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664393</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020584</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>744.73230092637</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870087</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404113</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069152</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104636</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>164.3333852708083</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094307</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981762</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839153</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066055</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642058</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243781</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209162</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>293.465085693136</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.0724380955348</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191269</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010451</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1578811.471746183</v>
+        <v>1580664.818329686</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12463925.44488782</v>
+        <v>12459789.44490648</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>461523.385748072</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10486116.08287926</v>
+        <v>10470467.40536549</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>37.11181591693609</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>153.8072380324134</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>63.15312727816867</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>48.08970874525387</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.41014564717602</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>58.84422125033139</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>32.39806028898077</v>
+        <v>177.2282032364437</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885166</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>123.5602352902973</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>8.884184155073076</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>84.0214989144301</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>172.7361461930495</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.8302881234605</v>
+        <v>11.718218467906</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>72.28371900210766</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.4046174348862</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>227.396036177111</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>138.8821010562276</v>
       </c>
     </row>
     <row r="9">
@@ -1226,10 +1226,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719214</v>
+        <v>93.71269568157101</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>86.94972106458447</v>
       </c>
       <c r="T9" t="n">
-        <v>10.73871884651419</v>
+        <v>192.4342991208087</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8191502244401</v>
+        <v>225.8152053197015</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>76.43359024427681</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>263.1858047772164</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>233.2715658672517</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>9.434273714501982</v>
       </c>
       <c r="D13" t="n">
-        <v>102.1557845699818</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>356.5845196044187</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>109.7234882887314</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>131.6267707433209</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>34.32106446352753</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>102.1557845699818</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>98.20443080310447</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>34.32106446352753</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>64.44601915223804</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.07327741456097</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>38.2187527515831</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>78.58522891595193</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>30.65104903283357</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>141.383131826302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>73.93222849083736</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>151.3113851298087</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>107.3363007608859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>540.7559564928856</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="C2" t="n">
-        <v>540.7559564928856</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="D2" t="n">
-        <v>540.7559564928856</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="E2" t="n">
-        <v>351.3361714764008</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="F2" t="n">
-        <v>344.3906707271973</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513811</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644755</v>
@@ -4345,7 +4345,7 @@
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020269</v>
@@ -4357,25 +4357,25 @@
         <v>738.6222485201474</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372655</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372655</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="U2" t="n">
-        <v>540.7559564928856</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="V2" t="n">
-        <v>540.7559564928856</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="W2" t="n">
-        <v>540.7559564928856</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="X2" t="n">
-        <v>540.7559564928856</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="Y2" t="n">
-        <v>540.7559564928856</v>
+        <v>583.2614020227602</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>484.9240438887989</v>
+        <v>533.4995072678432</v>
       </c>
       <c r="C3" t="n">
-        <v>310.4710146076719</v>
+        <v>533.4995072678432</v>
       </c>
       <c r="D3" t="n">
-        <v>161.5366049464206</v>
+        <v>384.565097606592</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>225.3276426011365</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>78.79308462802143</v>
       </c>
       <c r="G3" t="n">
         <v>15.0020469733056</v>
@@ -4445,16 +4445,16 @@
         <v>722.9192922843281</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843281</v>
+        <v>533.4995072678432</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843281</v>
+        <v>533.4995072678432</v>
       </c>
       <c r="X3" t="n">
-        <v>674.3438289052838</v>
+        <v>533.4995072678432</v>
       </c>
       <c r="Y3" t="n">
-        <v>484.9240438887989</v>
+        <v>533.4995072678432</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>459.9217274659449</v>
+        <v>565.077033154388</v>
       </c>
       <c r="C4" t="n">
-        <v>459.9217274659449</v>
+        <v>396.1408502264811</v>
       </c>
       <c r="D4" t="n">
-        <v>309.8050880536091</v>
+        <v>246.0242108141454</v>
       </c>
       <c r="E4" t="n">
-        <v>161.891994471216</v>
+        <v>98.11111723175227</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>98.11111723175227</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>98.11111723175227</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>98.11111723175227</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>88.85718952202703</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>261.7447676371621</v>
+        <v>118.7527324484196</v>
       </c>
       <c r="M4" t="n">
-        <v>447.3950989318189</v>
+        <v>285.9838492295953</v>
       </c>
       <c r="N4" t="n">
-        <v>633.0454302264757</v>
+        <v>471.6341805242521</v>
       </c>
       <c r="O4" t="n">
         <v>634.3723839608023</v>
@@ -4533,7 +4533,7 @@
         <v>746.7254979846277</v>
       </c>
       <c r="Y4" t="n">
-        <v>557.3057129681429</v>
+        <v>746.7254979846277</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1299.860713063805</v>
+        <v>1332.709567064687</v>
       </c>
       <c r="C5" t="n">
-        <v>930.8981961233937</v>
+        <v>963.7470501242756</v>
       </c>
       <c r="D5" t="n">
-        <v>572.6324975166433</v>
+        <v>605.4813515175251</v>
       </c>
       <c r="E5" t="n">
-        <v>572.6324975166433</v>
+        <v>219.6930989192809</v>
       </c>
       <c r="F5" t="n">
-        <v>161.6465927270357</v>
+        <v>212.7475981700774</v>
       </c>
       <c r="G5" t="n">
-        <v>128.9212793038228</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038228</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4594,25 +4594,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1686.460553127927</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="T5" t="n">
-        <v>1686.460553127927</v>
+        <v>1332.709567064687</v>
       </c>
       <c r="U5" t="n">
-        <v>1686.460553127927</v>
+        <v>1332.709567064687</v>
       </c>
       <c r="V5" t="n">
-        <v>1686.460553127927</v>
+        <v>1332.709567064687</v>
       </c>
       <c r="W5" t="n">
-        <v>1686.460553127927</v>
+        <v>1332.709567064687</v>
       </c>
       <c r="X5" t="n">
-        <v>1686.460553127927</v>
+        <v>1332.709567064687</v>
       </c>
       <c r="Y5" t="n">
-        <v>1686.460553127927</v>
+        <v>1332.709567064687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>662.8886629835073</v>
+        <v>613.2439521774281</v>
       </c>
       <c r="C6" t="n">
-        <v>488.4356337023803</v>
+        <v>613.2439521774281</v>
       </c>
       <c r="D6" t="n">
-        <v>339.501224041129</v>
+        <v>464.3095425161769</v>
       </c>
       <c r="E6" t="n">
-        <v>180.2637690356736</v>
+        <v>305.0720875107214</v>
       </c>
       <c r="F6" t="n">
-        <v>33.72921106255854</v>
+        <v>158.5375295376063</v>
       </c>
       <c r="G6" t="n">
         <v>33.72921106255854</v>
@@ -4646,25 +4646,25 @@
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>121.7846078506383</v>
+        <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>243.2077001209171</v>
+        <v>180.4678301599682</v>
       </c>
       <c r="L6" t="n">
-        <v>452.7985733737478</v>
+        <v>390.0587034127988</v>
       </c>
       <c r="M6" t="n">
-        <v>716.738104869235</v>
+        <v>653.9982349082861</v>
       </c>
       <c r="N6" t="n">
-        <v>1002.071975302568</v>
+        <v>939.3321053416189</v>
       </c>
       <c r="O6" t="n">
-        <v>1240.876927054026</v>
+        <v>1178.137057093077</v>
       </c>
       <c r="P6" t="n">
-        <v>1413.205888007736</v>
+        <v>1595.536043992239</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4673,25 +4673,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1677.486629738964</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1481.867907205805</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U6" t="n">
-        <v>1481.867907205805</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V6" t="n">
-        <v>1246.715798974062</v>
+        <v>1451.308444896184</v>
       </c>
       <c r="W6" t="n">
-        <v>1246.715798974062</v>
+        <v>1197.071088167983</v>
       </c>
       <c r="X6" t="n">
-        <v>1038.864298768529</v>
+        <v>989.2195879624501</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.1040000035753</v>
+        <v>781.4592891974962</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.5850744831047</v>
+        <v>118.5994119862253</v>
       </c>
       <c r="C7" t="n">
-        <v>478.6488915551978</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="D7" t="n">
-        <v>328.532252142862</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="E7" t="n">
-        <v>180.6191585604689</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F7" t="n">
         <v>33.72921106255854</v>
@@ -4761,16 +4761,16 @@
         <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>1118.650709350305</v>
+        <v>1038.447176894973</v>
       </c>
       <c r="W7" t="n">
-        <v>829.2335393133444</v>
+        <v>749.0300068580125</v>
       </c>
       <c r="X7" t="n">
-        <v>829.2335393133444</v>
+        <v>521.0404559599951</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.2335393133444</v>
+        <v>300.247876816465</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1211.345188505514</v>
+        <v>1286.97882011664</v>
       </c>
       <c r="C8" t="n">
-        <v>1211.345188505514</v>
+        <v>1286.97882011664</v>
       </c>
       <c r="D8" t="n">
-        <v>853.0794898987635</v>
+        <v>928.71312150989</v>
       </c>
       <c r="E8" t="n">
-        <v>467.2912373005192</v>
+        <v>542.9248689116457</v>
       </c>
       <c r="F8" t="n">
-        <v>56.3053325109117</v>
+        <v>131.9389641220381</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761827</v>
+        <v>120.1023798110219</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761827</v>
+        <v>120.1023798110219</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761827</v>
+        <v>47.08852223313542</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872707</v>
+        <v>169.0423345016256</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158997</v>
+        <v>402.5580040735185</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985276</v>
+        <v>729.1566029033745</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556943</v>
+        <v>1124.229910358616</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415488</v>
+        <v>1530.309725343743</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975109</v>
+        <v>1900.424118318899</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631087</v>
+        <v>2181.807188965127</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208125</v>
+        <v>2344.941409938264</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380913</v>
+        <v>2354.426111656771</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380913</v>
+        <v>2354.426111656771</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380913</v>
+        <v>2144.926498086179</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.777326380913</v>
+        <v>2144.926498086179</v>
       </c>
       <c r="V8" t="n">
-        <v>2217.777326380913</v>
+        <v>1813.863610742608</v>
       </c>
       <c r="W8" t="n">
-        <v>1988.084360545447</v>
+        <v>1813.863610742608</v>
       </c>
       <c r="X8" t="n">
-        <v>1988.084360545447</v>
+        <v>1813.863610742608</v>
       </c>
       <c r="Y8" t="n">
-        <v>1597.945028569636</v>
+        <v>1673.578660180762</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>905.6133829345007</v>
+        <v>770.9072627213276</v>
       </c>
       <c r="C9" t="n">
-        <v>731.1603536533737</v>
+        <v>596.4542334402006</v>
       </c>
       <c r="D9" t="n">
-        <v>582.2259439921224</v>
+        <v>447.5198237789494</v>
       </c>
       <c r="E9" t="n">
-        <v>422.9884889866669</v>
+        <v>288.2823687734939</v>
       </c>
       <c r="F9" t="n">
-        <v>276.4539310135519</v>
+        <v>141.7478108003789</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5997967268023</v>
+        <v>141.7478108003789</v>
       </c>
       <c r="H9" t="n">
-        <v>44.35554652761827</v>
+        <v>47.08852223313542</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761827</v>
+        <v>47.08852223313542</v>
       </c>
       <c r="J9" t="n">
-        <v>194.7902561886474</v>
+        <v>225.735655383007</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3411088987147</v>
+        <v>522.8844040362759</v>
       </c>
       <c r="L9" t="n">
-        <v>617.5440847283911</v>
+        <v>797.9766854654033</v>
       </c>
       <c r="M9" t="n">
-        <v>942.8794583784968</v>
+        <v>1138.353270800799</v>
       </c>
       <c r="N9" t="n">
-        <v>1291.234136219251</v>
+        <v>1502.14725644363</v>
       </c>
       <c r="O9" t="n">
-        <v>1587.690814634403</v>
+        <v>1812.727885184071</v>
       </c>
       <c r="P9" t="n">
-        <v>2121.568509855269</v>
+        <v>2042.6631547769</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380913</v>
+        <v>2354.426111656771</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380913</v>
+        <v>2354.426111656771</v>
       </c>
       <c r="S9" t="n">
-        <v>2217.777326380913</v>
+        <v>2266.598110581433</v>
       </c>
       <c r="T9" t="n">
-        <v>2206.930135626858</v>
+        <v>2072.220030661424</v>
       </c>
       <c r="U9" t="n">
-        <v>1978.829983885</v>
+        <v>1844.123863671826</v>
       </c>
       <c r="V9" t="n">
-        <v>1743.677875653257</v>
+        <v>1608.971755440084</v>
       </c>
       <c r="W9" t="n">
-        <v>1489.440518925055</v>
+        <v>1354.734398711882</v>
       </c>
       <c r="X9" t="n">
-        <v>1281.589018719523</v>
+        <v>1146.882898506349</v>
       </c>
       <c r="Y9" t="n">
-        <v>1073.828719954569</v>
+        <v>939.1225997413956</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>508.0947705358286</v>
+        <v>660.9443856536815</v>
       </c>
       <c r="C10" t="n">
-        <v>339.1585876079217</v>
+        <v>492.0082027257746</v>
       </c>
       <c r="D10" t="n">
-        <v>339.1585876079217</v>
+        <v>341.8915633134389</v>
       </c>
       <c r="E10" t="n">
-        <v>191.2454940255286</v>
+        <v>193.9784697310458</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761827</v>
+        <v>47.08852223313542</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761827</v>
+        <v>47.08852223313542</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761827</v>
+        <v>47.08852223313542</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761827</v>
+        <v>47.08852223313542</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692023</v>
+        <v>67.20410769253667</v>
       </c>
       <c r="K10" t="n">
-        <v>218.063342327403</v>
+        <v>230.0970305796041</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918436</v>
+        <v>494.0703244075349</v>
       </c>
       <c r="M10" t="n">
-        <v>755.548116892171</v>
+        <v>782.7822740567103</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629318</v>
+        <v>1070.063915268018</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.51424854613</v>
+        <v>1319.398713293204</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659239</v>
+        <v>1509.227024692254</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155967</v>
+        <v>1557.219227775182</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155967</v>
+        <v>1557.219227775182</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155967</v>
+        <v>1557.219227775182</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155967</v>
+        <v>1557.219227775182</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.148182155967</v>
+        <v>1557.219227775182</v>
       </c>
       <c r="V10" t="n">
-        <v>1427.942535444577</v>
+        <v>1557.219227775182</v>
       </c>
       <c r="W10" t="n">
-        <v>1138.525365407616</v>
+        <v>1291.374980525469</v>
       </c>
       <c r="X10" t="n">
-        <v>910.5358145095985</v>
+        <v>1063.385429627451</v>
       </c>
       <c r="Y10" t="n">
-        <v>689.7432353660683</v>
+        <v>842.5928504839212</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555043</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>742.4225746200293</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>328.4394675364358</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3769.398533126171</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3416.629877856057</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3043.164119594977</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619165</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>301.0525042748309</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>791.784837118582</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>494.0589900220723</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1957.66745682198</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>896.5000339958422</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>675.707454852312</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555043</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3769.398533126171</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3416.629877856057</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3043.164119594977</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619165</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>835.5837926935562</v>
+        <v>561.918335063571</v>
       </c>
       <c r="C16" t="n">
-        <v>666.6476097656493</v>
+        <v>392.9821521356641</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>392.9821521356641</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>392.9821521356641</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2245.205584149097</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2025.526801863479</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1736.450588178206</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1481.766099972319</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1192.348929935358</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.024836667326</v>
+        <v>964.3593790373409</v>
       </c>
       <c r="Y16" t="n">
-        <v>1017.232257523796</v>
+        <v>743.5667998938108</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>873.8816814720477</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>704.9454985441408</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>554.8288591318051</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>406.915765549412</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2329.179379659556</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2109.500597373938</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1820.424383688665</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1565.739895482778</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1276.322725445817</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1276.322725445817</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1055.530146302287</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>240.4596049779264</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y22" t="n">
-        <v>929.7309773356195</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="23">
@@ -5983,13 +5983,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2225.50344847599</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>954.2476448606602</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>785.3114619327533</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>635.1948225204176</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>487.2817289380245</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>340.3917814401141</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>173.195682154994</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="32">
@@ -6694,25 +6694,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,13 +6721,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>702.4944101284095</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>533.5582272005026</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>383.4415877881669</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2166.101889898846</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1877.026663243044</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.342175037157</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1332.925005000197</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1104.935454102179</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>884.1428749586493</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1901.695539989114</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.011051783227</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7177,16 +7177,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
         <v>484.8112968429803</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7414,16 +7414,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703109</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,22 +7636,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602304</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8139,19 +8139,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>88.70546398364611</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>152.808936860374</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>63.37360602116058</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>247.5454807529823</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>25.90541300402738</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>103.2587840751582</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>128.2950354859209</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688311</v>
+        <v>26.60228845827604</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>50.29152613729264</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>157.8125473841258</v>
       </c>
       <c r="D13" t="n">
-        <v>46.45968844823057</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>50.29152613729269</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>38.89198472948098</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>13.79427727961038</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>50.29152613729213</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>83.13405755535452</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.2915261372921</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>80.97502887069321</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.5113759375338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>179.1866975757052</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>61.70948393027196</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>186.7544012944547</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>144.8013425629422</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>93.31459260779047</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>66.09406519747952</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>179.1866975757051</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>927342.5773971104</v>
+        <v>928252.4973930048</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901280.0268892777</v>
+        <v>896366.5160321048</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901280.0268892779</v>
+        <v>896366.5160321048</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901280.0268892777</v>
+        <v>896366.516032105</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901280.0268892779</v>
+        <v>896366.516032105</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>901280.0268892777</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="14">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117838</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>521741.85156472</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985039</v>
+        <v>521741.8515647199</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985037</v>
+        <v>521741.8515647199</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>521741.8515647201</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
@@ -26346,13 +26346,13 @@
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26371,10 +26371,10 @@
         <v>259123.8056778327</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296904</v>
+        <v>173199.1279427739</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745753</v>
+        <v>545349.5809351694</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345744871</v>
       </c>
       <c r="J3" t="n">
         <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153564</v>
+        <v>60247.15959153558</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484285</v>
+        <v>42264.0177934059</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167276</v>
+        <v>142429.7457480736</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296189</v>
+        <v>160857.064669344</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14210.2194556297</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14210.2194556297</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14210.2194556297</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14210.2194556297</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26475,19 +26475,19 @@
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969306</v>
+        <v>88852.82756054428</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-392834.7291838814</v>
+        <v>-392834.7291838812</v>
       </c>
       <c r="C6" t="n">
-        <v>-10311.95296079823</v>
+        <v>-10311.95296079814</v>
       </c>
       <c r="D6" t="n">
-        <v>138410.7937527814</v>
+        <v>110768.1302391222</v>
       </c>
       <c r="E6" t="n">
-        <v>-180720.1635311905</v>
+        <v>-138005.9823354831</v>
       </c>
       <c r="F6" t="n">
-        <v>408958.6286433847</v>
+        <v>407343.5985996862</v>
       </c>
       <c r="G6" t="n">
-        <v>408958.6286433846</v>
+        <v>407343.5985996862</v>
       </c>
       <c r="H6" t="n">
-        <v>408958.628643385</v>
+        <v>407343.5985996862</v>
       </c>
       <c r="I6" t="n">
-        <v>408958.6286433848</v>
+        <v>398452.3565148574</v>
       </c>
       <c r="J6" t="n">
-        <v>359893.6839148402</v>
+        <v>360206.3252437614</v>
       </c>
       <c r="K6" t="n">
-        <v>348711.4690518491</v>
+        <v>349024.1103807705</v>
       </c>
       <c r="L6" t="n">
-        <v>375340.755278542</v>
+        <v>367007.2521789002</v>
       </c>
       <c r="M6" t="n">
-        <v>254884.7776266572</v>
+        <v>266841.5242242326</v>
       </c>
       <c r="N6" t="n">
-        <v>408958.6286433848</v>
+        <v>409271.269972306</v>
       </c>
       <c r="O6" t="n">
-        <v>408958.6286433847</v>
+        <v>409271.2699723061</v>
       </c>
       <c r="P6" t="n">
-        <v>408958.6286433848</v>
+        <v>409271.2699723061</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790452</v>
+        <v>891.6491129982279</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26795,19 +26795,19 @@
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952283</v>
+        <v>588.6065279141927</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>201.5110155847053</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814352</v>
+        <v>141.6681565006179</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626288</v>
+        <v>466.3919357181575</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>234.0895511156618</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132464</v>
+        <v>166.9913896322109</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044203</v>
+        <v>571.5387624118135</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="J4" t="n">
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156615</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132464</v>
+        <v>166.9913896322109</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044203</v>
+        <v>571.5387624118135</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132464</v>
+        <v>166.9913896322109</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044203</v>
+        <v>571.5387624118135</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
         <v>129.3682389399023</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>214.0574446480942</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>173.9450204377216</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,19 +27460,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>73.01066208760666</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -27517,16 +27517,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>157.6832764582236</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098435</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.42183453476127</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27557,10 +27557,10 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>66.86299852053527</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577478</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>379.8896784060634</v>
+        <v>235.0595354586005</v>
       </c>
       <c r="H5" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1044530022292</v>
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27709,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>12.17011528723923</v>
       </c>
       <c r="H6" t="n">
         <v>96.65565115906497</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>132.8351251490725</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
         <v>225.8352527003384</v>
@@ -27757,7 +27757,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>83.22532218419774</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
@@ -27833,16 +27833,16 @@
         <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>79.40149713077852</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>302.7648464233326</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787265</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734614</v>
+        <v>127.3378417975132</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>251.0588913840582</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>121.844932540302</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>247.355837599826</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4256303918559</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155182</v>
+        <v>23.36412778503687</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088543</v>
+        <v>49.10954443974872</v>
       </c>
       <c r="T9" t="n">
-        <v>181.9372714379438</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>166.3830875153472</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421427</v>
+        <v>147.9315523023204</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685651</v>
+        <v>107.0967820453216</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305866</v>
+        <v>104.9967272314443</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>195.9954283711099</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>221.075506098623</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>286.2313261650484</v>
       </c>
       <c r="V10" t="n">
-        <v>175.7040530795512</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>23.33719355937455</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674551</v>
+        <v>3.584519047229054</v>
       </c>
       <c r="H8" t="n">
-        <v>35.562222332487</v>
+        <v>36.70995569243456</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725333</v>
+        <v>138.1921705682983</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566382</v>
+        <v>304.2315734847572</v>
       </c>
       <c r="K8" t="n">
-        <v>441.708584306222</v>
+        <v>455.9642647539632</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766821</v>
+        <v>565.6639895455994</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458745</v>
+        <v>629.4101801517592</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799698</v>
+        <v>639.5946948946987</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415059</v>
+        <v>603.9511336188148</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845404</v>
+        <v>515.4583196403474</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451954</v>
+        <v>387.0877312614568</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997767</v>
+        <v>225.1660446005023</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278391</v>
+        <v>81.68222778873215</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205535</v>
+        <v>15.69123212924519</v>
       </c>
       <c r="U8" t="n">
-        <v>0.277795951333964</v>
+        <v>0.2867615237783243</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328512</v>
+        <v>1.917886771354679</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930432</v>
+        <v>18.52274855492545</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986326</v>
+        <v>66.03250506637821</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743662</v>
+        <v>181.1982409725927</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693765</v>
+        <v>309.6966546533562</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169211</v>
+        <v>416.4253711224271</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675796</v>
+        <v>485.9487665840342</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436906</v>
+        <v>498.8103844498294</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627799</v>
+        <v>456.3140512529704</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873894</v>
+        <v>366.2322554878948</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391975</v>
+        <v>244.8165640066078</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070808</v>
+        <v>119.0772155056879</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498353</v>
+        <v>35.62390559950465</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363606</v>
+        <v>7.730429574012936</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347706</v>
+        <v>0.1261767612733342</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765491</v>
+        <v>1.607891843111558</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529683</v>
+        <v>14.29562020511914</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869315</v>
+        <v>48.35369288193669</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412202</v>
+        <v>113.6779533079872</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011179</v>
+        <v>186.8077977724156</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552804</v>
+        <v>239.0496654749676</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243487</v>
+        <v>252.0443550070236</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057685</v>
+        <v>246.0513035917898</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231442</v>
+        <v>227.268203424532</v>
       </c>
       <c r="P10" t="n">
-        <v>188.387210546328</v>
+        <v>194.467209825056</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130358</v>
+        <v>134.6390160627324</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658289</v>
+        <v>72.29666414572515</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516768</v>
+        <v>28.02116966586233</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543461</v>
+        <v>6.870083329658475</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629962</v>
+        <v>0.08770319144244874</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>199.046387759111</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601592</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34859,19 +34859,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>74.60115408961761</v>
+        <v>92.63945645062402</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>168.9203199809856</v>
       </c>
       <c r="N4" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
         <v>116.8989542469473</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>88.94484524048465</v>
+        <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
         <v>122.6495881517968</v>
@@ -35032,10 +35032,10 @@
         <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
-        <v>174.0696575289995</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.0148132527186</v>
+        <v>91.84293852089688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299519</v>
+        <v>123.1856689580709</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612415</v>
+        <v>235.8744137089826</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066949</v>
+        <v>329.8975745756122</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186018</v>
+        <v>399.0639469244865</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833788</v>
+        <v>410.1816312981078</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198192</v>
+        <v>373.852922197128</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292709</v>
+        <v>284.2253238850779</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707459</v>
+        <v>164.7820413870073</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644591</v>
+        <v>9.580506786370165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>151.9542521828577</v>
+        <v>180.4516496463349</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1725784950175</v>
+        <v>300.1502511649181</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370469</v>
+        <v>277.8709913425529</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455613</v>
+        <v>343.8147326620158</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603573</v>
+        <v>367.4686723664961</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183354</v>
+        <v>313.717806808526</v>
       </c>
       <c r="P9" t="n">
-        <v>539.2703992129964</v>
+        <v>232.2578480735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.18062275317598</v>
+        <v>314.9120776564354</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454744</v>
+        <v>20.31877319131439</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752351</v>
+        <v>164.5383059465327</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155966</v>
+        <v>266.6396907352837</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861893</v>
+        <v>291.6282319688642</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849971</v>
+        <v>290.1834759710184</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371839</v>
+        <v>251.8533313385716</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112215</v>
+        <v>191.7457690899495</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134142</v>
+        <v>48.47697281103804</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>61.20494878475206</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802851</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
